--- a/PCS_Database Details_01_03_2021.xlsx
+++ b/PCS_Database Details_01_03_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_NeVee_Works_PCS\RMI-Neevee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1874AF7-65D5-4442-9993-626A33499E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD37957-21C9-45FA-BE1C-BFDF26C50FC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>Blood group</t>
   </si>
   <si>
-    <t>Contact no</t>
-  </si>
-  <si>
     <t>added date</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>Emp_ID</t>
+  </si>
+  <si>
+    <t>Contact_no</t>
   </si>
 </sst>
 </file>
@@ -742,57 +742,32 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,19 +775,44 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,8 +1035,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1103,22 +1103,22 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1164,29 +1164,29 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="19" t="s">
+      <c r="L5" s="45"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1201,23 +1201,23 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="41">
+      <c r="B6" s="42">
         <v>1</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="31" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
         <v>10</v>
@@ -1239,17 +1239,17 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="31" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
         <v>10</v>
@@ -1271,17 +1271,17 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="31" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
         <v>10</v>
@@ -1303,17 +1303,17 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="31" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
         <v>10</v>
@@ -1335,17 +1335,17 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="31" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
         <v>10</v>
@@ -1367,17 +1367,17 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="31" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
         <v>10</v>
@@ -1399,17 +1399,17 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
         <v>17</v>
@@ -1431,20 +1431,20 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1459,19 +1459,19 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="22" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="35" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
         <v>17</v>
@@ -1493,17 +1493,17 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="35" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
         <v>17</v>
@@ -1525,17 +1525,17 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="35" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
         <v>17</v>
@@ -1557,17 +1557,17 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="35" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="21"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
         <v>17</v>
@@ -1589,17 +1589,17 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="35" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5" t="s">
         <v>10</v>
@@ -1621,17 +1621,17 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="35" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
         <v>17</v>
@@ -1653,20 +1653,20 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1681,19 +1681,19 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="22" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="35" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5" t="s">
         <v>10</v>
@@ -1715,17 +1715,17 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="35" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="23"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5" t="s">
         <v>17</v>
@@ -1747,17 +1747,17 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="35" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5" t="s">
         <v>17</v>
@@ -1779,17 +1779,17 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="35" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5" t="s">
         <v>10</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1839,19 +1839,19 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="22" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="35" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
         <v>17</v>
@@ -1873,17 +1873,17 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="35" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="21"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5" t="s">
         <v>10</v>
@@ -1905,15 +1905,15 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1961,19 +1961,19 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="37" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="35" t="s">
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="21"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
         <v>17</v>
@@ -1995,17 +1995,17 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="35" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="21"/>
+      <c r="J31" s="23"/>
       <c r="K31" s="5"/>
       <c r="L31" s="4" t="s">
         <v>17</v>
@@ -2027,17 +2027,17 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="35" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="21"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="5"/>
       <c r="L32" s="4" t="s">
         <v>17</v>
@@ -2059,17 +2059,17 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="35" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="21"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="5"/>
       <c r="L33" s="4" t="s">
         <v>17</v>
@@ -2091,17 +2091,17 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="35" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="21"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="5"/>
       <c r="L34" s="4" t="s">
         <v>17</v>
@@ -2123,17 +2123,17 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="35" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="21"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="5"/>
       <c r="L35" s="4" t="s">
         <v>17</v>
@@ -2155,17 +2155,17 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="35" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="21"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="5"/>
       <c r="L36" s="4" t="s">
         <v>17</v>
@@ -2187,17 +2187,17 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="35" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="21"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5" t="s">
         <v>10</v>
@@ -2219,17 +2219,17 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="35" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="21"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5" t="s">
         <v>17</v>
@@ -2251,17 +2251,17 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="35" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="21"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5" t="s">
         <v>17</v>
@@ -2283,17 +2283,17 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="40" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="21"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7" t="s">
         <v>17</v>
@@ -2371,23 +2371,23 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="41">
+      <c r="B43" s="42">
         <v>2</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="37" t="s">
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="35" t="s">
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J43" s="21"/>
+      <c r="J43" s="23"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
         <v>10</v>
@@ -2409,17 +2409,17 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="35" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="21"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
         <v>10</v>
@@ -2441,17 +2441,17 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="35" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J45" s="21"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5" t="s">
         <v>10</v>
@@ -2473,17 +2473,17 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="35" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J46" s="21"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5" t="s">
         <v>10</v>
@@ -2505,17 +2505,17 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="35" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J47" s="21"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5" t="s">
         <v>10</v>
@@ -2537,17 +2537,17 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="35" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J48" s="21"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5" t="s">
         <v>10</v>
@@ -2569,17 +2569,17 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="35" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="21"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5" t="s">
         <v>10</v>
@@ -2601,17 +2601,17 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="35" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="21"/>
+      <c r="J50" s="23"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5" t="s">
         <v>10</v>
@@ -2633,17 +2633,17 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="35" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="21"/>
+      <c r="J51" s="23"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5" t="s">
         <v>17</v>
@@ -2721,23 +2721,23 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="41">
+      <c r="B54" s="42">
         <v>3</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="37" t="s">
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="35" t="s">
+      <c r="G54" s="25"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J54" s="21"/>
+      <c r="J54" s="23"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
         <v>10</v>
@@ -2759,17 +2759,17 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="35" t="s">
+      <c r="B55" s="37"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J55" s="21"/>
+      <c r="J55" s="23"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5" t="s">
         <v>10</v>
@@ -2791,17 +2791,17 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="35" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J56" s="21"/>
+      <c r="J56" s="23"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5" t="s">
         <v>10</v>
@@ -2823,17 +2823,17 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="35" t="s">
+      <c r="B57" s="38"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J57" s="21"/>
+      <c r="J57" s="23"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5" t="s">
         <v>10</v>
@@ -2911,23 +2911,23 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="41">
+      <c r="B60" s="42">
         <v>4</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="37" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="23"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="35" t="s">
+      <c r="G60" s="25"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J60" s="21"/>
+      <c r="J60" s="23"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4" t="s">
         <v>17</v>
@@ -2949,17 +2949,17 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="35" t="s">
+      <c r="B61" s="37"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J61" s="21"/>
+      <c r="J61" s="23"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5" t="s">
         <v>17</v>
@@ -2981,17 +2981,17 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="35" t="s">
+      <c r="B62" s="37"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J62" s="21"/>
+      <c r="J62" s="23"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5" t="s">
         <v>10</v>
@@ -3013,17 +3013,17 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="35" t="s">
+      <c r="B63" s="37"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J63" s="21"/>
+      <c r="J63" s="23"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5" t="s">
         <v>10</v>
@@ -3045,17 +3045,17 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="35" t="s">
+      <c r="B64" s="37"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J64" s="21"/>
+      <c r="J64" s="23"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5" t="s">
         <v>17</v>
@@ -3077,17 +3077,17 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="35" t="s">
+      <c r="B65" s="38"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J65" s="21"/>
+      <c r="J65" s="23"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5" t="s">
         <v>17</v>
@@ -3165,23 +3165,23 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" s="41">
+      <c r="B68" s="42">
         <v>5</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="37" t="s">
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="35" t="s">
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="J68" s="21"/>
+      <c r="J68" s="23"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
         <v>17</v>
@@ -3203,17 +3203,17 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="35" t="s">
+      <c r="B69" s="37"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="21"/>
+      <c r="J69" s="23"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5" t="s">
         <v>17</v>
@@ -3235,17 +3235,17 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="35" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J70" s="21"/>
+      <c r="J70" s="23"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5" t="s">
         <v>17</v>
@@ -3267,17 +3267,17 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="35" t="s">
+      <c r="B71" s="37"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J71" s="21"/>
+      <c r="J71" s="23"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5" t="s">
         <v>17</v>
@@ -3299,17 +3299,17 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="35" t="s">
+      <c r="B72" s="37"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J72" s="21"/>
+      <c r="J72" s="23"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5" t="s">
         <v>17</v>
@@ -3331,17 +3331,17 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="35" t="s">
+      <c r="B73" s="37"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J73" s="21"/>
+      <c r="J73" s="23"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5" t="s">
         <v>10</v>
@@ -3363,17 +3363,17 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="35" t="s">
+      <c r="B74" s="38"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="J74" s="21"/>
+      <c r="J74" s="23"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5" t="s">
         <v>10</v>
@@ -3451,23 +3451,23 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="45">
+      <c r="B77" s="36">
         <v>6</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="37" t="s">
+      <c r="D77" s="25"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G77" s="23"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="40" t="s">
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J77" s="21"/>
+      <c r="J77" s="23"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7" t="s">
         <v>10</v>
@@ -3489,17 +3489,17 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="40" t="s">
+      <c r="B78" s="37"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J78" s="21"/>
+      <c r="J78" s="23"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7" t="s">
         <v>17</v>
@@ -3521,17 +3521,17 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="40" t="s">
+      <c r="B79" s="37"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="J79" s="21"/>
+      <c r="J79" s="23"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7" t="s">
         <v>17</v>
@@ -3553,17 +3553,17 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="40" t="s">
+      <c r="B80" s="37"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J80" s="21"/>
+      <c r="J80" s="23"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7" t="s">
         <v>17</v>
@@ -3584,18 +3584,18 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="J81" s="53"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J81" s="33"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7" t="s">
         <v>17</v>
@@ -3603,7 +3603,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
       <c r="O81" s="7"/>
-      <c r="P81" s="52"/>
+      <c r="P81" s="19"/>
       <c r="Q81" s="16"/>
       <c r="R81" s="16"/>
       <c r="S81" s="16"/>
@@ -3616,18 +3616,18 @@
       <c r="Z81" s="16"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="J82" s="53"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J82" s="33"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7" t="s">
         <v>17</v>
@@ -3635,7 +3635,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
-      <c r="P82" s="52"/>
+      <c r="P82" s="19"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="16"/>
       <c r="S82" s="16"/>
@@ -3649,17 +3649,17 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="J83" s="21"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J83" s="23"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7" t="s">
         <v>17</v>
@@ -3681,17 +3681,17 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J84" s="21"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J84" s="23"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7" t="s">
         <v>10</v>
@@ -3700,8 +3700,6 @@
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
       <c r="P84" s="2"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -3713,17 +3711,17 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="J85" s="21"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J85" s="23"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7" t="s">
         <v>17</v>
@@ -3745,17 +3743,17 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="J86" s="21"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J86" s="23"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7" t="s">
         <v>17</v>
@@ -3777,20 +3775,20 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="23"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="24"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="26"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -3805,20 +3803,20 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="30"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="31"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -3833,19 +3831,19 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="37" t="s">
+      <c r="B89" s="37"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G89" s="23"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="40" t="s">
+      <c r="G89" s="25"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J89" s="21"/>
+      <c r="J89" s="23"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7" t="s">
         <v>10</v>
@@ -3867,17 +3865,17 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="40" t="s">
+      <c r="B90" s="37"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J90" s="21"/>
+      <c r="J90" s="23"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7" t="s">
         <v>17</v>
@@ -3899,17 +3897,17 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="40" t="s">
+      <c r="B91" s="37"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J91" s="21"/>
+      <c r="J91" s="23"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7" t="s">
         <v>17</v>
@@ -3931,17 +3929,17 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="J92" s="21"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J92" s="23"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7" t="s">
         <v>17</v>
@@ -3963,17 +3961,17 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="J93" s="21"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J93" s="23"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7" t="s">
         <v>17</v>
@@ -3995,17 +3993,17 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="J94" s="21"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J94" s="23"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7" t="s">
         <v>17</v>
@@ -4027,17 +4025,17 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J95" s="21"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J95" s="23"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7" t="s">
         <v>17</v>
@@ -4059,17 +4057,17 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="J96" s="21"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J96" s="23"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7" t="s">
         <v>17</v>
@@ -4231,23 +4229,23 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="45">
+      <c r="B102" s="36">
         <v>7</v>
       </c>
-      <c r="C102" s="49" t="s">
+      <c r="C102" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="25"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="23"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="G102" s="23"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="47" t="s">
+      <c r="G102" s="25"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J102" s="21"/>
+      <c r="J102" s="23"/>
       <c r="K102" s="11"/>
       <c r="L102" s="11" t="s">
         <v>10</v>
@@ -4269,17 +4267,17 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="J103" s="21"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J103" s="23"/>
       <c r="K103" s="11"/>
       <c r="L103" s="11" t="s">
         <v>17</v>
@@ -4301,23 +4299,23 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="J104" s="21"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J104" s="23"/>
       <c r="K104" s="11"/>
       <c r="L104" s="11" t="s">
         <v>17</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N104" s="12"/>
       <c r="O104" s="12"/>
@@ -4335,23 +4333,23 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J105" s="21"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J105" s="23"/>
       <c r="K105" s="11"/>
       <c r="L105" s="11" t="s">
         <v>17</v>
       </c>
       <c r="M105" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N105" s="12"/>
       <c r="O105" s="12"/>
@@ -4369,23 +4367,23 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="J106" s="21"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J106" s="23"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M106" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N106" s="12"/>
       <c r="O106" s="12"/>
@@ -4403,17 +4401,17 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="J107" s="21"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J107" s="23"/>
       <c r="K107" s="12"/>
       <c r="L107" s="13" t="s">
         <v>17</v>
@@ -4435,17 +4433,17 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J108" s="21"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J108" s="23"/>
       <c r="K108" s="12"/>
       <c r="L108" s="13" t="s">
         <v>17</v>
@@ -4467,17 +4465,17 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="J109" s="21"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J109" s="23"/>
       <c r="K109" s="12"/>
       <c r="L109" s="13" t="s">
         <v>17</v>
@@ -4613,7 +4611,7 @@
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4671,12 +4669,12 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="15"/>
-      <c r="D116" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
+      <c r="D116" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4701,12 +4699,12 @@
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="17"/>
-      <c r="D117" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
+      <c r="D117" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -4732,7 +4730,7 @@
       <c r="B118" s="1"/>
       <c r="C118" s="18"/>
       <c r="D118" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -10719,73 +10717,35 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="F54:H57"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="F60:H65"/>
-    <mergeCell ref="F68:H74"/>
-    <mergeCell ref="F77:H86"/>
-    <mergeCell ref="F89:H96"/>
-    <mergeCell ref="D116:G116"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="C102:E109"/>
-    <mergeCell ref="F102:H109"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="B77:B96"/>
-    <mergeCell ref="C77:E96"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:E57"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C60:E65"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:E74"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="F87:O88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H12"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F14:H19"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="F26:H28"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C43:E51"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="C5:E5"/>
@@ -10810,35 +10770,73 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F14:H19"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="F26:H28"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H12"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="C102:E109"/>
+    <mergeCell ref="F102:H109"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B77:B96"/>
+    <mergeCell ref="C77:E96"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:E57"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="C60:E65"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="C68:E74"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="F87:O88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="F60:H65"/>
+    <mergeCell ref="F68:H74"/>
+    <mergeCell ref="F77:H86"/>
+    <mergeCell ref="F89:H96"/>
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="F54:H57"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
